--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -888,102 +888,102 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="E37:J37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1314,29 +1314,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1401,7 +1401,7 @@
       <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="77" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="41"/>
@@ -1427,7 +1427,7 @@
       <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1453,7 +1453,7 @@
       <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1479,7 +1479,7 @@
       <c r="B8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1505,7 +1505,7 @@
       <c r="B9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1531,7 +1531,7 @@
       <c r="B10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1557,7 +1557,7 @@
       <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
@@ -1584,7 +1584,7 @@
       <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
@@ -1611,7 +1611,7 @@
       <c r="B13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1639,7 +1639,7 @@
       <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
@@ -1665,7 +1665,7 @@
       <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="79" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1691,7 +1691,7 @@
       <c r="B16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
@@ -1767,18 +1767,18 @@
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94">
         <v>3220000</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="82">
         <f>F20/A$20</f>
         <v>0.23</v>
       </c>
-      <c r="H20" s="111">
+      <c r="H20" s="100">
         <f>A20-F20</f>
         <v>10780000</v>
       </c>
@@ -1791,27 +1791,27 @@
       <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="94">
+      <c r="A21" s="89"/>
+      <c r="B21" s="83">
         <v>43507</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="83">
         <v>43514</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="83">
         <v>43516</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="95">
         <v>701100</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="95">
         <v>831246</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="82">
         <f>F21/A$20</f>
         <v>5.9374714285714288E-2</v>
       </c>
-      <c r="H21" s="112">
+      <c r="H21" s="101">
         <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>9948754</v>
       </c>
@@ -1825,26 +1825,26 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="95">
+      <c r="B22" s="84">
         <v>43549</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="84">
         <v>43559</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="84">
         <v>43560</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="96">
         <v>952470</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="96">
         <v>1170925</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="82">
         <f>F22/A$20</f>
         <v>8.3637500000000004E-2</v>
       </c>
-      <c r="H22" s="112">
+      <c r="H22" s="101">
         <f t="shared" si="2"/>
         <v>8777829</v>
       </c>
@@ -1858,26 +1858,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="95">
+      <c r="B23" s="84">
         <v>43591</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="84">
         <v>43600</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="84">
         <v>43601</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="97">
         <v>1075590</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="97">
         <v>1228791</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="82">
         <f>F23/A$20</f>
         <v>8.7770785714285718E-2</v>
       </c>
-      <c r="H23" s="112">
+      <c r="H23" s="101">
         <f t="shared" si="2"/>
         <v>7549038</v>
       </c>
@@ -1891,26 +1891,26 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="95">
+      <c r="B24" s="84">
         <v>43678</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="84">
         <v>43681</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="84">
         <v>43711</v>
       </c>
-      <c r="E24" s="107">
+      <c r="E24" s="96">
         <v>413910</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="96">
         <v>481049</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="85">
         <f>F24/A$20</f>
         <v>3.436064285714286E-2</v>
       </c>
-      <c r="H24" s="112">
+      <c r="H24" s="101">
         <f t="shared" ref="H24" si="3">H23-F24</f>
         <v>7067989</v>
       </c>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="112"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="22"/>
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="112"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="22"/>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="112"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="22"/>
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
@@ -1966,42 +1966,42 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="102"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="102"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="104"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="93"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2050,12 +2050,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2064,10 +2064,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2082,11 +2082,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="85">
+      <c r="A37" s="105">
         <f>A20-F31</f>
         <v>7067989</v>
       </c>
-      <c r="B37" s="86"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="72">
         <f>1-G31</f>
         <v>0.50485635714285715</v>
@@ -2148,8 +2148,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="84"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="55"/>
@@ -2243,9 +2243,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="81"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="60"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2262,8 +2262,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="84"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2274,8 +2274,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2286,8 +2286,8 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2300,18 +2300,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="83"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="83"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2319,11 +2324,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -960,6 +960,20 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,20 +983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1314,29 +1314,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1924,14 +1924,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="22"/>
+      <c r="B25" s="84">
+        <v>43724</v>
+      </c>
+      <c r="C25" s="84">
+        <v>43727</v>
+      </c>
+      <c r="D25" s="84">
+        <v>43735</v>
+      </c>
+      <c r="E25" s="96">
+        <v>442890</v>
+      </c>
+      <c r="F25" s="96">
+        <v>496706</v>
+      </c>
+      <c r="G25" s="85">
+        <f>F25/A$20</f>
+        <v>3.5478999999999997E-2</v>
+      </c>
+      <c r="H25" s="101">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>6571283</v>
+      </c>
+      <c r="I25" s="73">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.46937735714285705</v>
+      </c>
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="1"/>
@@ -2015,23 +2034,23 @@
       <c r="D31" s="17"/>
       <c r="E31" s="50">
         <f>SUM(E20:E30)</f>
-        <v>3143070</v>
+        <v>3585960</v>
       </c>
       <c r="F31" s="49">
         <f>SUM(F20:F30)</f>
-        <v>6932011</v>
+        <v>7428717</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.49514364285714285</v>
+        <v>0.53062264285714289</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>7067989</v>
+        <v>6571283</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.50485635714285715</v>
+        <v>0.46937735714285711</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
@@ -2050,12 +2069,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2064,10 +2083,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2082,18 +2101,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="111">
         <f>A20-F31</f>
-        <v>7067989</v>
-      </c>
-      <c r="B37" s="106"/>
+        <v>6571283</v>
+      </c>
+      <c r="B37" s="112"/>
       <c r="C37" s="72">
         <f>1-G31</f>
-        <v>0.50485635714285715</v>
+        <v>0.46937735714285711</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>63.107044642857133</v>
+        <v>58.672169642857128</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>43</v>
@@ -2148,8 +2167,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="55"/>
@@ -2243,9 +2262,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="60"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2262,8 +2281,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2274,8 +2293,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2286,8 +2305,8 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2300,23 +2319,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2324,6 +2338,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -960,29 +960,29 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1291,9 +1291,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24:I25"/>
     </sheetView>
   </sheetViews>
@@ -1314,29 +1317,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1775,7 +1778,7 @@
         <v>3220000</v>
       </c>
       <c r="G20" s="82">
-        <f>F20/A$20</f>
+        <f t="shared" ref="G20:G25" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
       <c r="H20" s="100">
@@ -1808,15 +1811,15 @@
         <v>831246</v>
       </c>
       <c r="G21" s="82">
-        <f>F21/A$20</f>
+        <f t="shared" si="2"/>
         <v>5.9374714285714288E-2</v>
       </c>
       <c r="H21" s="101">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
       <c r="I21" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71062528571428574</v>
       </c>
       <c r="J21" s="1"/>
@@ -1841,15 +1844,15 @@
         <v>1170925</v>
       </c>
       <c r="G22" s="82">
-        <f>F22/A$20</f>
+        <f t="shared" si="2"/>
         <v>8.3637500000000004E-2</v>
       </c>
       <c r="H22" s="101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8777829</v>
       </c>
       <c r="I22" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62698778571428571</v>
       </c>
       <c r="J22" s="66"/>
@@ -1874,15 +1877,15 @@
         <v>1228791</v>
       </c>
       <c r="G23" s="82">
-        <f>F23/A$20</f>
+        <f t="shared" si="2"/>
         <v>8.7770785714285718E-2</v>
       </c>
       <c r="H23" s="101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7549038</v>
       </c>
       <c r="I23" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53921699999999995</v>
       </c>
       <c r="J23" s="66"/>
@@ -1907,15 +1910,15 @@
         <v>481049</v>
       </c>
       <c r="G24" s="85">
-        <f>F24/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.436064285714286E-2</v>
       </c>
       <c r="H24" s="101">
-        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7067989</v>
       </c>
       <c r="I24" s="73">
-        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.50485635714285704</v>
       </c>
       <c r="J24" s="66"/>
@@ -1940,15 +1943,15 @@
         <v>496706</v>
       </c>
       <c r="G25" s="85">
-        <f>F25/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.5478999999999997E-2</v>
       </c>
       <c r="H25" s="101">
-        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>6571283</v>
       </c>
       <c r="I25" s="73">
-        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.46937735714285705</v>
       </c>
       <c r="J25" s="66"/>
@@ -2069,12 +2072,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2083,10 +2086,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2101,11 +2104,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="111">
+      <c r="A37" s="105">
         <f>A20-F31</f>
         <v>6571283</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="72">
         <f>1-G31</f>
         <v>0.46937735714285711</v>
@@ -2167,8 +2170,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="55"/>
@@ -2262,9 +2265,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="60"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2281,8 +2284,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2293,8 +2296,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2305,8 +2308,8 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2319,18 +2322,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2338,16 +2346,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -888,9 +888,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,20 +955,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,11 +962,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1296,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1317,29 +1323,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1404,7 +1410,7 @@
       <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="111" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="41"/>
@@ -1430,7 +1436,7 @@
       <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1456,7 +1462,7 @@
       <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1482,7 +1488,7 @@
       <c r="B8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1508,7 +1514,7 @@
       <c r="B9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1534,7 +1540,7 @@
       <c r="B10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1560,7 +1566,7 @@
       <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
@@ -1587,7 +1593,7 @@
       <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
@@ -1614,7 +1620,7 @@
       <c r="B13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1642,7 +1648,7 @@
       <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
@@ -1668,7 +1674,7 @@
       <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1694,7 +1700,7 @@
       <c r="B16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
@@ -1770,18 +1776,18 @@
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94">
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91">
         <v>3220000</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="79">
         <f t="shared" ref="G20:G25" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
-      <c r="H20" s="100">
+      <c r="H20" s="97">
         <f>A20-F20</f>
         <v>10780000</v>
       </c>
@@ -1794,27 +1800,27 @@
       <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="83">
+      <c r="A21" s="86"/>
+      <c r="B21" s="80">
         <v>43507</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="80">
         <v>43514</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="80">
         <v>43516</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="92">
         <v>701100</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="92">
         <v>831246</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="79">
         <f t="shared" si="2"/>
         <v>5.9374714285714288E-2</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="98">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
@@ -1828,26 +1834,26 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="84">
+      <c r="B22" s="81">
         <v>43549</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="81">
         <v>43559</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="81">
         <v>43560</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="93">
         <v>952470</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="93">
         <v>1170925</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="79">
         <f t="shared" si="2"/>
         <v>8.3637500000000004E-2</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="98">
         <f t="shared" si="3"/>
         <v>8777829</v>
       </c>
@@ -1861,26 +1867,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="84">
+      <c r="B23" s="81">
         <v>43591</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="81">
         <v>43600</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="81">
         <v>43601</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="94">
         <v>1075590</v>
       </c>
-      <c r="F23" s="97">
+      <c r="F23" s="94">
         <v>1228791</v>
       </c>
-      <c r="G23" s="82">
+      <c r="G23" s="79">
         <f t="shared" si="2"/>
         <v>8.7770785714285718E-2</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="98">
         <f t="shared" si="3"/>
         <v>7549038</v>
       </c>
@@ -1894,26 +1900,26 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="84">
+      <c r="B24" s="81">
         <v>43678</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="81">
         <v>43681</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="81">
         <v>43711</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="93">
         <v>413910</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="93">
         <v>481049</v>
       </c>
-      <c r="G24" s="85">
+      <c r="G24" s="82">
         <f t="shared" si="2"/>
         <v>3.436064285714286E-2</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="98">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7067989</v>
       </c>
@@ -1927,26 +1933,26 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="84">
+      <c r="B25" s="81">
         <v>43724</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="81">
         <v>43727</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="81">
         <v>43735</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="93">
         <v>442890</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="93">
         <v>496706</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="82">
         <f t="shared" si="2"/>
         <v>3.5478999999999997E-2</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="98">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>6571283</v>
       </c>
@@ -1960,13 +1966,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="101"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="22"/>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
@@ -1974,13 +1980,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="101"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="98"/>
       <c r="I27" s="22"/>
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
@@ -1988,42 +1994,42 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="91"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="93"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2072,12 +2078,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2086,10 +2092,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2104,11 +2110,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="108">
         <f>A20-F31</f>
         <v>6571283</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="72">
         <f>1-G31</f>
         <v>0.46937735714285711</v>
@@ -2170,8 +2176,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="55"/>
@@ -2265,9 +2271,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="60"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2284,8 +2290,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2296,8 +2302,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2308,8 +2314,8 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2322,23 +2328,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2346,6 +2347,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -957,39 +957,39 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1323,29 +1323,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1410,7 +1410,7 @@
       <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="41"/>
@@ -1436,7 +1436,7 @@
       <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1462,7 +1462,7 @@
       <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1488,7 +1488,7 @@
       <c r="B8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1514,7 +1514,7 @@
       <c r="B9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1540,7 +1540,7 @@
       <c r="B10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1566,7 +1566,7 @@
       <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
@@ -1593,7 +1593,7 @@
       <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
@@ -1620,7 +1620,7 @@
       <c r="B13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1648,7 +1648,7 @@
       <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
@@ -1674,7 +1674,7 @@
       <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="101" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1700,7 +1700,7 @@
       <c r="B16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
@@ -1784,7 +1784,7 @@
         <v>3220000</v>
       </c>
       <c r="G20" s="79">
-        <f t="shared" ref="G20:G25" si="2">F20/A$20</f>
+        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
       <c r="H20" s="97">
@@ -1966,14 +1966,33 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="22"/>
+      <c r="B26" s="81">
+        <v>43802</v>
+      </c>
+      <c r="C26" s="81">
+        <v>43805</v>
+      </c>
+      <c r="D26" s="81">
+        <v>43816</v>
+      </c>
+      <c r="E26" s="93">
+        <v>463410</v>
+      </c>
+      <c r="F26" s="93">
+        <v>505094</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="2"/>
+        <v>3.6078142857142857E-2</v>
+      </c>
+      <c r="H26" s="98">
+        <f t="shared" ref="H26" si="8">H25-F26</f>
+        <v>6066189</v>
+      </c>
+      <c r="I26" s="73">
+        <f t="shared" ref="I26" si="9">I25-G26</f>
+        <v>0.43329921428571422</v>
+      </c>
       <c r="J26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="1"/>
@@ -2043,23 +2062,23 @@
       <c r="D31" s="17"/>
       <c r="E31" s="50">
         <f>SUM(E20:E30)</f>
-        <v>3585960</v>
+        <v>4049370</v>
       </c>
       <c r="F31" s="49">
         <f>SUM(F20:F30)</f>
-        <v>7428717</v>
+        <v>7933811</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.53062264285714289</v>
+        <v>0.56670078571428573</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>6571283</v>
+        <v>6066189</v>
       </c>
       <c r="I31" s="24">
         <f>1-G31</f>
-        <v>0.46937735714285711</v>
+        <v>0.43329921428571427</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
@@ -2078,12 +2097,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2092,10 +2111,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2110,18 +2129,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108">
+      <c r="A37" s="105">
         <f>A20-F31</f>
-        <v>6571283</v>
-      </c>
-      <c r="B37" s="109"/>
+        <v>6066189</v>
+      </c>
+      <c r="B37" s="106"/>
       <c r="C37" s="72">
         <f>1-G31</f>
-        <v>0.46937735714285711</v>
+        <v>0.43329921428571427</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>58.672169642857128</v>
+        <v>54.162401785714273</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>43</v>
@@ -2176,8 +2195,8 @@
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="55"/>
@@ -2271,9 +2290,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="60"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2290,8 +2309,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2302,8 +2321,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="55"/>
@@ -2314,8 +2333,8 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2328,18 +2347,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2347,11 +2371,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 590 гр.)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -745,9 +748,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,6 +966,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,18 +991,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1302,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1323,34 +1338,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1361,82 +1376,82 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40">
         <v>20</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41">
+      <c r="F5" s="39"/>
+      <c r="G5" s="40">
         <f>E5-F5</f>
         <v>20</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="69"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="9"/>
@@ -1448,21 +1463,21 @@
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="70"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="9"/>
@@ -1474,21 +1489,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="44"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="70"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -1500,21 +1515,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="70"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="9"/>
@@ -1526,21 +1541,21 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9"/>
@@ -1552,75 +1567,75 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="70"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="23"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9"/>
@@ -1632,49 +1647,49 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="100" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9"/>
@@ -1686,34 +1701,34 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="70"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="74"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="70"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="62"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1725,7 +1740,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12"/>
@@ -1735,321 +1750,344 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90">
         <v>3220000</v>
       </c>
-      <c r="G20" s="79">
-        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
+      <c r="G20" s="78">
+        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
-      <c r="H20" s="97">
+      <c r="H20" s="96">
         <f>A20-F20</f>
         <v>10780000</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="72">
         <f>1-G20</f>
         <v>0.77</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="80">
+      <c r="A21" s="85"/>
+      <c r="B21" s="79">
         <v>43507</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="79">
         <v>43514</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="79">
         <v>43516</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="91">
         <v>701100</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="91">
         <v>831246</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="78">
         <f t="shared" si="2"/>
         <v>5.9374714285714288E-2</v>
       </c>
-      <c r="H21" s="98">
-        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
+      <c r="H21" s="97">
+        <f t="shared" ref="H21:J23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="72">
         <f t="shared" si="3"/>
         <v>0.71062528571428574</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>43549</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="80">
         <v>43559</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="80">
         <v>43560</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="92">
         <v>952470</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="92">
         <v>1170925</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="78">
         <f t="shared" si="2"/>
         <v>8.3637500000000004E-2</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="97">
         <f t="shared" si="3"/>
         <v>8777829</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="72">
         <f t="shared" si="3"/>
         <v>0.62698778571428571</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>43591</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="80">
         <v>43600</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="80">
         <v>43601</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="93">
         <v>1075590</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="93">
         <v>1228791</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="78">
         <f t="shared" si="2"/>
         <v>8.7770785714285718E-2</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="97">
         <f t="shared" si="3"/>
         <v>7549038</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="72">
         <f t="shared" si="3"/>
         <v>0.53921699999999995</v>
       </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="81">
+      <c r="B24" s="80">
         <v>43678</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="80">
         <v>43681</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="80">
         <v>43711</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="92">
         <v>413910</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="92">
         <v>481049</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="81">
         <f t="shared" si="2"/>
         <v>3.436064285714286E-2</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="97">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7067989</v>
       </c>
-      <c r="I24" s="73">
-        <f t="shared" ref="I24" si="5">I23-G24</f>
+      <c r="I24" s="72">
+        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
         <v>0.50485635714285704</v>
       </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="81">
+      <c r="B25" s="80">
         <v>43724</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="80">
         <v>43727</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="80">
         <v>43735</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="92">
         <v>442890</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="92">
         <v>496706</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="81">
         <f t="shared" si="2"/>
         <v>3.5478999999999997E-2</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="97">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>6571283</v>
       </c>
-      <c r="I25" s="73">
-        <f t="shared" ref="I25" si="7">I24-G25</f>
+      <c r="I25" s="72">
+        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
         <v>0.46937735714285705</v>
       </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="81">
+      <c r="B26" s="80">
         <v>43802</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="80">
         <v>43805</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="80">
         <v>43816</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="92">
         <v>463410</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="92">
         <v>505094</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="81">
         <f t="shared" si="2"/>
         <v>3.6078142857142857E-2</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="97">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6066189</v>
       </c>
-      <c r="I26" s="73">
-        <f t="shared" ref="I26" si="9">I25-G26</f>
+      <c r="I26" s="72">
+        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
         <v>0.43329921428571422</v>
       </c>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="B27" s="80">
+        <v>43844</v>
+      </c>
+      <c r="C27" s="80">
+        <v>43849</v>
+      </c>
+      <c r="D27" s="80">
+        <v>43857</v>
+      </c>
+      <c r="E27" s="92">
+        <v>718200</v>
+      </c>
+      <c r="F27" s="92">
+        <v>759246</v>
+      </c>
+      <c r="G27" s="81">
+        <f t="shared" si="2"/>
+        <v>5.4231857142857144E-2</v>
+      </c>
+      <c r="H27" s="97">
+        <f t="shared" ref="H27" si="10">H26-F27</f>
+        <v>5306943</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" ref="I27" si="11">I26-G27</f>
+        <v>0.37906735714285705</v>
+      </c>
+      <c r="J27" s="114">
+        <v>587</v>
+      </c>
+      <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="1"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2060,29 +2098,29 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="50">
+      <c r="E31" s="49">
         <f>SUM(E20:E30)</f>
-        <v>4049370</v>
-      </c>
-      <c r="F31" s="49">
+        <v>4767570</v>
+      </c>
+      <c r="F31" s="48">
         <f>SUM(F20:F30)</f>
-        <v>7933811</v>
+        <v>8693057</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(G20:G30)</f>
-        <v>0.56670078571428573</v>
+        <v>0.62093264285714289</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>6066189</v>
-      </c>
-      <c r="I31" s="24">
+        <v>5306943</v>
+      </c>
+      <c r="I31" s="23">
         <f>1-G31</f>
-        <v>0.43329921428571427</v>
-      </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+        <v>0.37906735714285711</v>
+      </c>
+      <c r="J31" s="117"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2097,12 +2135,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2111,10 +2149,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2129,27 +2167,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="110">
         <f>A20-F31</f>
-        <v>6066189</v>
-      </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="72">
+        <v>5306943</v>
+      </c>
+      <c r="B37" s="111"/>
+      <c r="C37" s="71">
         <f>1-G31</f>
-        <v>0.43329921428571427</v>
+        <v>0.37906735714285711</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>54.162401785714273</v>
-      </c>
-      <c r="E37" s="76" t="s">
+        <v>47.383419642857142</v>
+      </c>
+      <c r="E37" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2187,113 +2225,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="109"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="56"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="56"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="56"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="56"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="56"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="55"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="56"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="60"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2301,40 +2339,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="55"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2347,23 +2385,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="109"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2371,6 +2404,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -966,44 +966,44 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1338,29 +1338,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1812,7 +1812,7 @@
         <f>1-G20</f>
         <v>0.77</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="102"/>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
     </row>
@@ -1838,14 +1838,14 @@
         <v>5.9374714285714288E-2</v>
       </c>
       <c r="H21" s="97">
-        <f t="shared" ref="H21:J23" si="3">H20-F21</f>
+        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
       <c r="I21" s="72">
         <f t="shared" si="3"/>
         <v>0.71062528571428574</v>
       </c>
-      <c r="J21" s="113"/>
+      <c r="J21" s="102"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1878,7 +1878,7 @@
         <f t="shared" si="3"/>
         <v>0.62698778571428571</v>
       </c>
-      <c r="J22" s="113"/>
+      <c r="J22" s="102"/>
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
     </row>
@@ -1911,7 +1911,7 @@
         <f t="shared" si="3"/>
         <v>0.53921699999999995</v>
       </c>
-      <c r="J23" s="113"/>
+      <c r="J23" s="102"/>
       <c r="K23" s="65"/>
       <c r="L23" s="1"/>
     </row>
@@ -1941,10 +1941,10 @@
         <v>7067989</v>
       </c>
       <c r="I24" s="72">
-        <f t="shared" ref="I24:J24" si="5">I23-G24</f>
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.50485635714285704</v>
       </c>
-      <c r="J24" s="113"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="66"/>
       <c r="L24" s="1"/>
     </row>
@@ -1974,10 +1974,10 @@
         <v>6571283</v>
       </c>
       <c r="I25" s="72">
-        <f t="shared" ref="I25:J25" si="7">I24-G25</f>
+        <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.46937735714285705</v>
       </c>
-      <c r="J25" s="113"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
@@ -2007,10 +2007,10 @@
         <v>6066189</v>
       </c>
       <c r="I26" s="72">
-        <f t="shared" ref="I26:J26" si="9">I25-G26</f>
+        <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.43329921428571422</v>
       </c>
-      <c r="J26" s="113"/>
+      <c r="J26" s="102"/>
       <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
@@ -2043,7 +2043,7 @@
         <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.37906735714285705</v>
       </c>
-      <c r="J27" s="114">
+      <c r="J27" s="103">
         <v>587</v>
       </c>
       <c r="K27" s="65"/>
@@ -2059,7 +2059,7 @@
       <c r="G28" s="82"/>
       <c r="H28" s="97"/>
       <c r="I28" s="87"/>
-      <c r="J28" s="115"/>
+      <c r="J28" s="104"/>
       <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="G29" s="81"/>
       <c r="H29" s="97"/>
       <c r="I29" s="87"/>
-      <c r="J29" s="115"/>
+      <c r="J29" s="104"/>
       <c r="K29" s="65"/>
       <c r="L29" s="1"/>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="G30" s="84"/>
       <c r="H30" s="98"/>
       <c r="I30" s="89"/>
-      <c r="J30" s="116"/>
+      <c r="J30" s="105"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2118,7 +2118,7 @@
         <f>1-G31</f>
         <v>0.37906735714285711</v>
       </c>
-      <c r="J31" s="117"/>
+      <c r="J31" s="106"/>
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
     </row>
@@ -2135,12 +2135,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2149,10 +2149,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2167,11 +2167,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <f>A20-F31</f>
         <v>5306943</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="71">
         <f>1-G31</f>
         <v>0.37906735714285711</v>
@@ -2233,8 +2233,8 @@
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="54"/>
@@ -2328,9 +2328,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="59"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2347,8 +2347,8 @@
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="109"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="54"/>
@@ -2359,8 +2359,8 @@
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="55"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="54"/>
@@ -2371,8 +2371,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2385,18 +2385,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="108"/>
-      <c r="C60" s="109"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2404,11 +2409,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -125,9 +125,6 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Кол-во         непригодных,      шт</t>
-  </si>
-  <si>
     <t>Фактически пригодных деталей,    шт</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
-    <t>Формокомплект бутылки «Сваяк 0,7»  тип XXI-КПМ-30-1-700 (владелец ООО "ВЕДАТРАНЗИТ" дог. №25/04 от 25.04.2014)</t>
-  </si>
-  <si>
     <t>SVAYAK 700</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 590 гр.)</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Сваяк 0,7»  тип XXI-КПМ-30-1-700 (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -269,16 +269,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -705,7 +695,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -742,9 +732,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,12 +739,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,9 +776,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,8 +829,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,13 +935,13 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,6 +957,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -992,18 +984,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1338,34 +1322,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1376,359 +1360,367 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="34">
+        <v>1</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36">
         <v>20</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40">
+      <c r="F5" s="114"/>
+      <c r="G5" s="36">
         <f>E5-F5</f>
         <v>20</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="68"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>41</v>
+      <c r="C6" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="69"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="41">
+      <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>41</v>
+      <c r="C7" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="115">
+        <v>8</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="43"/>
+        <v>18</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="69"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="41">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>41</v>
+      <c r="C8" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="41">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>41</v>
+      <c r="C9" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>41</v>
+      <c r="B10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="41">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>41</v>
+      <c r="C11" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="115">
+        <v>2</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="41">
+      <c r="L11" s="65"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="100" t="s">
-        <v>41</v>
+      <c r="C12" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="41">
+      <c r="L12" s="65"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="100" t="s">
-        <v>41</v>
+      <c r="C13" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="69"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="41">
+      <c r="L13" s="65"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="100" t="s">
-        <v>41</v>
+      <c r="C14" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="115">
+        <v>10</v>
+      </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="44"/>
+        <v>30</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="41">
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>41</v>
+      <c r="C15" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="115">
+        <v>2</v>
+      </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="69"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="41">
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="69"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="61"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1740,7 +1732,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12"/>
@@ -1750,344 +1742,365 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="J19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="70">
+      <c r="A20" s="66">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86">
         <v>3220000</v>
       </c>
-      <c r="G20" s="78">
-        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
+      <c r="G20" s="74">
+        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="92">
         <f>A20-F20</f>
         <v>10780000</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="68">
         <f>1-G20</f>
         <v>0.77</v>
       </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="79">
+      <c r="A21" s="81"/>
+      <c r="B21" s="75">
         <v>43507</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="75">
         <v>43514</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="75">
         <v>43516</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="87">
         <v>701100</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="87">
         <v>831246</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="74">
         <f t="shared" si="2"/>
         <v>5.9374714285714288E-2</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="93">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="68">
         <f t="shared" si="3"/>
         <v>0.71062528571428574</v>
       </c>
-      <c r="J21" s="102"/>
+      <c r="J21" s="98"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="80">
+      <c r="B22" s="76">
         <v>43549</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="76">
         <v>43559</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="76">
         <v>43560</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E22" s="88">
         <v>952470</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="88">
         <v>1170925</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="74">
         <f t="shared" si="2"/>
         <v>8.3637500000000004E-2</v>
       </c>
-      <c r="H22" s="97">
+      <c r="H22" s="93">
         <f t="shared" si="3"/>
         <v>8777829</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="68">
         <f t="shared" si="3"/>
         <v>0.62698778571428571</v>
       </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
-      <c r="B23" s="80">
+      <c r="B23" s="76">
         <v>43591</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="76">
         <v>43600</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="76">
         <v>43601</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="89">
         <v>1075590</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="89">
         <v>1228791</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="74">
         <f t="shared" si="2"/>
         <v>8.7770785714285718E-2</v>
       </c>
-      <c r="H23" s="97">
+      <c r="H23" s="93">
         <f t="shared" si="3"/>
         <v>7549038</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="68">
         <f t="shared" si="3"/>
         <v>0.53921699999999995</v>
       </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="65"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
-      <c r="B24" s="80">
+      <c r="B24" s="76">
         <v>43678</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="76">
         <v>43681</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="76">
         <v>43711</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="88">
         <v>413910</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="88">
         <v>481049</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="77">
         <f t="shared" si="2"/>
         <v>3.436064285714286E-2</v>
       </c>
-      <c r="H24" s="97">
+      <c r="H24" s="93">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7067989</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="68">
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.50485635714285704</v>
       </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="66"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="13"/>
-      <c r="B25" s="80">
+      <c r="B25" s="76">
         <v>43724</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="76">
         <v>43727</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="76">
         <v>43735</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="88">
         <v>442890</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="88">
         <v>496706</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="77">
         <f t="shared" si="2"/>
         <v>3.5478999999999997E-2</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H25" s="93">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>6571283</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="68">
         <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.46937735714285705</v>
       </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="65"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="61"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
-      <c r="B26" s="80">
+      <c r="B26" s="76">
         <v>43802</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="76">
         <v>43805</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="76">
         <v>43816</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="88">
         <v>463410</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="88">
         <v>505094</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="77">
         <f t="shared" si="2"/>
         <v>3.6078142857142857E-2</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="93">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6066189</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="68">
         <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.43329921428571422</v>
       </c>
-      <c r="J26" s="102"/>
-      <c r="K26" s="65"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="61"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
-      <c r="B27" s="80">
+      <c r="B27" s="76">
         <v>43844</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="76">
         <v>43849</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="76">
         <v>43857</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="88">
         <v>718200</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="88">
         <v>759246</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="77">
         <f t="shared" si="2"/>
         <v>5.4231857142857144E-2</v>
       </c>
-      <c r="H27" s="97">
+      <c r="H27" s="93">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5306943</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="68">
         <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.37906735714285705</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="99">
         <v>587</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="65"/>
+      <c r="B28" s="76">
+        <v>43874</v>
+      </c>
+      <c r="C28" s="76">
+        <v>43881</v>
+      </c>
+      <c r="D28" s="76">
+        <v>43885</v>
+      </c>
+      <c r="E28" s="89">
+        <v>966150</v>
+      </c>
+      <c r="F28" s="88">
+        <v>1017198</v>
+      </c>
+      <c r="G28" s="78">
+        <f t="shared" si="2"/>
+        <v>7.2656999999999999E-2</v>
+      </c>
+      <c r="H28" s="93">
+        <f t="shared" ref="H28" si="12">H27-F28</f>
+        <v>4289745</v>
+      </c>
+      <c r="I28" s="68">
+        <f t="shared" ref="I28" si="13">I27-G28</f>
+        <v>0.30641035714285703</v>
+      </c>
+      <c r="J28" s="100">
+        <v>587</v>
+      </c>
+      <c r="K28" s="61"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="65"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="61"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="105"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="101"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2098,29 +2111,29 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="49">
+      <c r="E31" s="45">
         <f>SUM(E20:E30)</f>
-        <v>4767570</v>
-      </c>
-      <c r="F31" s="48">
+        <v>5733720</v>
+      </c>
+      <c r="F31" s="44">
         <f>SUM(F20:F30)</f>
-        <v>8693057</v>
-      </c>
-      <c r="G31" s="21">
+        <v>9710255</v>
+      </c>
+      <c r="G31" s="20">
         <f>SUM(G20:G30)</f>
-        <v>0.62093264285714289</v>
+        <v>0.69358964285714286</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>5306943</v>
-      </c>
-      <c r="I31" s="23">
+        <v>4289745</v>
+      </c>
+      <c r="I31" s="22">
         <f>1-G31</f>
-        <v>0.37906735714285711</v>
-      </c>
-      <c r="J31" s="106"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+        <v>0.30641035714285714</v>
+      </c>
+      <c r="J31" s="102"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2135,12 +2148,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2149,10 +2162,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
@@ -2167,27 +2180,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="109">
+      <c r="A37" s="111">
         <f>A20-F31</f>
-        <v>5306943</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="71">
+        <v>4289745</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="67">
         <f>1-G31</f>
-        <v>0.37906735714285711</v>
+        <v>0.30641035714285714</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>47.383419642857142</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
+        <v>38.301294642857144</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2225,113 +2238,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="55"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="55"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="55"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="55"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="55"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="59"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2339,40 +2352,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="54"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="54"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2385,23 +2398,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2409,6 +2417,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-КПМ-30-1-700 (Сваяк  0,7 л).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082EF370-0562-4EE9-96CF-8B018CFAB355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -172,7 +180,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -695,7 +703,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -800,8 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -896,12 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,6 +957,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,12 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1085,6 +1091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1120,6 +1143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1295,33 +1335,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="s">
         <v>44</v>
       </c>
@@ -1337,7 +1377,7 @@
       <c r="K1" s="103"/>
       <c r="L1" s="103"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1392,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1364,7 +1404,7 @@
       <c r="K3" s="24"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1402,21 +1442,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="91" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36">
         <v>20</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="36">
         <f>E5-F5</f>
         <v>20</v>
@@ -1425,24 +1465,24 @@
       <c r="I5" s="38"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>20</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G15" si="0">E6-F6</f>
         <v>20</v>
@@ -1451,24 +1491,24 @@
       <c r="I6" s="39"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="100">
         <v>8</v>
       </c>
       <c r="G7" s="9">
@@ -1479,24 +1519,24 @@
       <c r="I7" s="39"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="65"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="115"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1505,24 +1545,24 @@
       <c r="I8" s="39"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="65"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="115"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1531,24 +1571,24 @@
       <c r="I9" s="40"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="65"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="115"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1557,24 +1597,24 @@
       <c r="I10" s="39"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="100">
         <v>2</v>
       </c>
       <c r="G11" s="9">
@@ -1585,25 +1625,25 @@
       <c r="I11" s="40"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="65"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="115"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1612,25 +1652,25 @@
       <c r="I12" s="40"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="65"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="115"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1641,24 +1681,24 @@
       <c r="I13" s="40"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="100">
         <v>10</v>
       </c>
       <c r="G14" s="9">
@@ -1669,24 +1709,24 @@
       <c r="I14" s="40"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="100">
         <v>2</v>
       </c>
       <c r="G15" s="9">
@@ -1697,30 +1737,30 @@
       <c r="I15" s="40"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="115"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="9"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="57"/>
-      <c r="B17" s="56"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1730,9 +1770,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="12"/>
@@ -1742,11 +1782,11 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
@@ -1777,365 +1817,386 @@
       <c r="J19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="66">
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="64">
         <f>E5*700000</f>
         <v>14000000</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86">
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82">
         <v>3220000</v>
       </c>
-      <c r="G20" s="74">
-        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
+      <c r="G20" s="72">
+        <f t="shared" ref="G20:G29" si="2">F20/A$20</f>
         <v>0.23</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="88">
         <f>A20-F20</f>
         <v>10780000</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="66">
         <f>1-G20</f>
         <v>0.77</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="75">
+      <c r="J20" s="94"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="73">
         <v>43507</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="73">
         <v>43514</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="73">
         <v>43516</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="83">
         <v>701100</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="83">
         <v>831246</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="72">
         <f t="shared" si="2"/>
         <v>5.9374714285714288E-2</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="89">
         <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>9948754</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="66">
         <f t="shared" si="3"/>
         <v>0.71062528571428574</v>
       </c>
-      <c r="J21" s="98"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="76">
+      <c r="B22" s="74">
         <v>43549</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="74">
         <v>43559</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="74">
         <v>43560</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="84">
         <v>952470</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="84">
         <v>1170925</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="72">
         <f t="shared" si="2"/>
         <v>8.3637500000000004E-2</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="89">
         <f t="shared" si="3"/>
         <v>8777829</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="66">
         <f t="shared" si="3"/>
         <v>0.62698778571428571</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="94"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="76">
+      <c r="B23" s="74">
         <v>43591</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="74">
         <v>43600</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="74">
         <v>43601</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="85">
         <v>1075590</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="85">
         <v>1228791</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="72">
         <f t="shared" si="2"/>
         <v>8.7770785714285718E-2</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="89">
         <f t="shared" si="3"/>
         <v>7549038</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="66">
         <f t="shared" si="3"/>
         <v>0.53921699999999995</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="61"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="76">
+      <c r="B24" s="74">
         <v>43678</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="74">
         <v>43681</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="74">
         <v>43711</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="84">
         <v>413910</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="84">
         <v>481049</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="75">
         <f t="shared" si="2"/>
         <v>3.436064285714286E-2</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="89">
         <f t="shared" ref="H24" si="4">H23-F24</f>
         <v>7067989</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="66">
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.50485635714285704</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="76">
+      <c r="B25" s="74">
         <v>43724</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="74">
         <v>43727</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="74">
         <v>43735</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="84">
         <v>442890</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="84">
         <v>496706</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="75">
         <f t="shared" si="2"/>
         <v>3.5478999999999997E-2</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="89">
         <f t="shared" ref="H25" si="6">H24-F25</f>
         <v>6571283</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="66">
         <f t="shared" ref="I25" si="7">I24-G25</f>
         <v>0.46937735714285705</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="61"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="76">
+      <c r="B26" s="74">
         <v>43802</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="74">
         <v>43805</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="74">
         <v>43816</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="84">
         <v>463410</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="84">
         <v>505094</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="75">
         <f t="shared" si="2"/>
         <v>3.6078142857142857E-2</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="89">
         <f t="shared" ref="H26" si="8">H25-F26</f>
         <v>6066189</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="66">
         <f t="shared" ref="I26" si="9">I25-G26</f>
         <v>0.43329921428571422</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="61"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="76">
+      <c r="B27" s="74">
         <v>43844</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="74">
         <v>43849</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="74">
         <v>43857</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="84">
         <v>718200</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="84">
         <v>759246</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="75">
         <f t="shared" si="2"/>
         <v>5.4231857142857144E-2</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="89">
         <f t="shared" ref="H27" si="10">H26-F27</f>
         <v>5306943</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="66">
         <f t="shared" ref="I27" si="11">I26-G27</f>
         <v>0.37906735714285705</v>
       </c>
-      <c r="J27" s="99">
+      <c r="J27" s="95">
         <v>587</v>
       </c>
-      <c r="K27" s="61"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="76">
+      <c r="B28" s="74">
         <v>43874</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="74">
         <v>43881</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="74">
         <v>43885</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="85">
         <v>966150</v>
       </c>
-      <c r="F28" s="88">
+      <c r="F28" s="84">
         <v>1017198</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="76">
         <f t="shared" si="2"/>
         <v>7.2656999999999999E-2</v>
       </c>
-      <c r="H28" s="93">
+      <c r="H28" s="89">
         <f t="shared" ref="H28" si="12">H27-F28</f>
         <v>4289745</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="66">
         <f t="shared" ref="I28" si="13">I27-G28</f>
         <v>0.30641035714285703</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="96">
         <v>587</v>
       </c>
-      <c r="K28" s="61"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="61"/>
+      <c r="B29" s="74">
+        <v>43969</v>
+      </c>
+      <c r="C29" s="74">
+        <v>43975</v>
+      </c>
+      <c r="D29" s="74">
+        <v>43983</v>
+      </c>
+      <c r="E29" s="85">
+        <v>851580</v>
+      </c>
+      <c r="F29" s="84">
+        <v>891006</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="2"/>
+        <v>6.3643285714285708E-2</v>
+      </c>
+      <c r="H29" s="89">
+        <f t="shared" ref="H29" si="14">H28-F29</f>
+        <v>3398739</v>
+      </c>
+      <c r="I29" s="66">
+        <f t="shared" ref="I29" si="15">I28-G29</f>
+        <v>0.24276707142857132</v>
+      </c>
+      <c r="J29" s="96">
+        <v>585</v>
+      </c>
+      <c r="K29" s="59"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="101"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="97"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="45">
+      <c r="E31" s="101">
         <f>SUM(E20:E30)</f>
-        <v>5733720</v>
-      </c>
-      <c r="F31" s="44">
+        <v>6585300</v>
+      </c>
+      <c r="F31" s="102">
         <f>SUM(F20:F30)</f>
-        <v>9710255</v>
+        <v>10601261</v>
       </c>
       <c r="G31" s="20">
         <f>SUM(G20:G30)</f>
-        <v>0.69358964285714286</v>
+        <v>0.75723292857142854</v>
       </c>
       <c r="H31" s="18">
         <f>A20-F31</f>
-        <v>4289745</v>
+        <v>3398739</v>
       </c>
       <c r="I31" s="22">
         <f>1-G31</f>
-        <v>0.30641035714285714</v>
-      </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.24276707142857146</v>
+      </c>
+      <c r="J31" s="98"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2147,7 +2208,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="104" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2222,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
         <v>17</v>
       </c>
@@ -2179,30 +2240,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="111">
         <f>A20-F31</f>
-        <v>4289745</v>
+        <v>3398739</v>
       </c>
       <c r="B37" s="112"/>
-      <c r="C37" s="67">
+      <c r="C37" s="65">
         <f>1-G31</f>
-        <v>0.30641035714285714</v>
+        <v>0.24276707142857146</v>
       </c>
       <c r="D37" s="19">
         <f>(C37/0.8)*100</f>
-        <v>38.301294642857144</v>
-      </c>
-      <c r="E37" s="71" t="s">
+        <v>30.345883928571432</v>
+      </c>
+      <c r="E37" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2210,7 +2271,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2225,7 +2286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2237,157 +2298,157 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
       <c r="I41" s="109"/>
       <c r="J41" s="110"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="51"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="49"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="51"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="49"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="51"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="51"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="51"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="49"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="49"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="51"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="49"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="106"/>
       <c r="C51" s="106"/>
       <c r="D51" s="107"/>
-      <c r="E51" s="55"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="109"/>
       <c r="J52" s="110"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="50"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="48"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="51"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="105"/>
       <c r="J53" s="105"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="50"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="48"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="105"/>
       <c r="J54" s="105"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2397,11 +2458,11 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="109"/>
       <c r="C60" s="110"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="109"/>
       <c r="C67" s="110"/>
     </row>
@@ -2426,7 +2487,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>
@@ -2435,12 +2496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2449,24 +2510,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
